--- a/biology/Médecine/1864_en_santé_et_médecine/1864_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1864_en_santé_et_médecine/1864_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1864_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1864 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1864_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Allemagne
-Discours inaugural de Friedrich von Recklinghausen à l'Université de Königsberg : (la) De corporibus liberis articulorum : Commentatio, Hartung, 1864, 1re éd., 18 p. (lire en ligne).
-France
-Fondation des Archives de Médecine Navale[1]. Elle sera remplacée en 1910 par les Archives de Médecine et de Pharmacie Navales jusqu’en 1939 où elle cesse de paraître jusqu’en 1946 puis par la Revue de Médecine Navale, créée en 1946[2].
-Roumanie
-16 juillet : fondation de l’Université de Bucarest[3].
-Royaume-Uni
-8 décembre : George Boole, mathématicien et logicien à l'origine de l'algèbre de Boole, décède des suites d'une pneumonie, après que sa femme, Mary Everest l'aspergea d'eau froide. Contemporaine et adepte des idées de Samuel Hahnemann (1755-1843), inventeur de l'homéopathie, elle pensait soigner son mari d'un banal refroidissement en soignant le mal par le mal)[4].
-Suisse
-du 8 au 22 août : congrès international pour le service des ambulances pendant les guerres à Genève[5].
-22 août : convention pour l’amélioration du sort des militaires blessés dans les armées en campagne dite « convention de Genève de 1864 »[6]. Le Comité international de la Croix-Rouge est officiellement créé à Genève.</t>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Discours inaugural de Friedrich von Recklinghausen à l'Université de Königsberg : (la) De corporibus liberis articulorum : Commentatio, Hartung, 1864, 1re éd., 18 p. (lire en ligne).</t>
         </is>
       </c>
     </row>
@@ -533,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1864_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +556,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation des Archives de Médecine Navale. Elle sera remplacée en 1910 par les Archives de Médecine et de Pharmacie Navales jusqu’en 1939 où elle cesse de paraître jusqu’en 1946 puis par la Revue de Médecine Navale, créée en 1946.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1864_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 juillet : fondation de l’Université de Bucarest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1864_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 décembre : George Boole, mathématicien et logicien à l'origine de l'algèbre de Boole, décède des suites d'une pneumonie, après que sa femme, Mary Everest l'aspergea d'eau froide. Contemporaine et adepte des idées de Samuel Hahnemann (1755-1843), inventeur de l'homéopathie, elle pensait soigner son mari d'un banal refroidissement en soignant le mal par le mal).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1864_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>du 8 au 22 août : congrès international pour le service des ambulances pendant les guerres à Genève.
+22 août : convention pour l’amélioration du sort des militaires blessés dans les armées en campagne dite « convention de Genève de 1864 ». Le Comité international de la Croix-Rouge est officiellement créé à Genève.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1864_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1864_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>5 mars : Léon Henri-Martin (mort en 1936), médecin et préhistorien français.
 14 juin : Alois Alzheimer (mort en 1915), neuropathologiste allemand.
@@ -560,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1864_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1864_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1864_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>23 janvier : Johann Lukas Schönlein (né en 1793), médecin allemand.
 29 avril : Abraham Gesner (né en 1797), médecin et géologue canadien.</t>
